--- a/database.xlsx
+++ b/database.xlsx
@@ -19,18 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>samu</t>
   </si>
 </sst>
 </file>
@@ -370,26 +376,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,60 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Ramos\Python\Budget_Generator_System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8796" windowHeight="4248"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>samu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,46 +408,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SAMI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>31</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DAVE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RAMOS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -2,27 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="15930" windowHeight="9990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +55,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,10 +418,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -424,7 +429,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -441,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,17 +463,238 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAMUEL RAMOS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9999.9999</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DAVID GALLO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>293844324</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Q5</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RAMOS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2342</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAMI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DAVE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAMUEL RAMOS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9999.9999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DAVID GALLO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>293844324</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAMI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAVE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAMUEL RAMOS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9999.9999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DAVID GALLO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>293844324</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAMI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DAVE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SAMUEL RAMOS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9999.9999</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>QQ99</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MR. MCMAHON</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>999999999999999999</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Ramos\Python\Budget_Generator_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB76E5-D515-4F52-8FA3-35FA1135C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="396" windowWidth="15936" windowHeight="9996"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15930" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1782,7 +1783,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2115,16 +2116,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>72</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>74</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>82</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>83</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>84</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>86</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>89</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>90</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>100</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>101</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>102</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>105</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>108</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>116</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>119</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>120</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>125</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>128</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>129</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>130</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>132</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>133</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>134</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>135</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>136</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>137</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>138</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>139</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>143</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>143</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>143</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>143</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>143</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>143</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>144</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>144</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>144</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>144</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>145</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>145</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>145</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>145</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>145</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>146</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>147</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>148</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>149</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>150</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>151</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>152</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>154</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>155</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>156</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>157</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>158</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>159</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>160</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>161</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>162</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>163</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>164</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>165</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>166</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>168</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>169</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>170</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>171</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>172</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>173</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>174</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>175</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>176</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>177</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>178</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>179</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>180</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>181</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>182</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>185</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>186</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>187</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>188</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>189</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>190</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>191</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>24970</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>193</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>194</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>195</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>196</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>41299</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>197</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>198</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>94863</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>199</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>199</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>200</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>5347.98</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>201</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>7215</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>202</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>8437</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>203</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>204</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>205</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>206</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>207</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>208</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>209</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>210</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>211</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>213</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>214</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>215</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>216</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>217</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>218</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>219</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>220</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>221</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>222</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>222</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>222</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>222</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>223</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>223</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>223</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>223</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>224</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>224</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>224</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>225</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>225</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>225</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>225</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>226</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>226</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>226</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>226</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>227</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>227</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>227</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>227</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>228</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>229</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>230</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>231</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>232</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>233</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>234</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>235</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>236</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>89249</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>237</v>
       </c>
@@ -5314,23 +5315,29 @@
         <v>112976</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>238</v>
       </c>
       <c r="B291" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>239</v>
       </c>
       <c r="B292" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>240</v>
       </c>
@@ -5341,7 +5348,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>241</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>242</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>243</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>244</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>93573</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>245</v>
       </c>
@@ -5396,7 +5403,7 @@
         <v>117976</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>246</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>247</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>248</v>
       </c>
@@ -5429,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>249</v>
       </c>
@@ -5440,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>250</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>251</v>
       </c>
@@ -5462,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>252</v>
       </c>
@@ -5473,7 +5480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>253</v>
       </c>
@@ -5484,7 +5491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>254</v>
       </c>
@@ -5495,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>255</v>
       </c>
@@ -5506,7 +5513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>256</v>
       </c>
@@ -5517,7 +5524,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>257</v>
       </c>
@@ -5528,7 +5535,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>258</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>259</v>
       </c>
@@ -5550,7 +5557,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>260</v>
       </c>
@@ -5561,7 +5568,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>261</v>
       </c>
@@ -5572,7 +5579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>262</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -5594,7 +5601,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>264</v>
       </c>
@@ -5605,7 +5612,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>265</v>
       </c>
@@ -5616,7 +5623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>266</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>43.16</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>267</v>
       </c>
@@ -5638,7 +5645,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>268</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -1368,27 +1368,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CAC 5</t>
+          <t>CT 1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cable de Cobre No.6 Solido</t>
+          <t>Cable Triplex de Aluminio # 1/0</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CT 1</t>
+          <t>CT 2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cable Triplex de Aluminio # 1/0</t>
+          <t>Cable Triplex de Aluminio # 2</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1398,12 +1398,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CT 2</t>
+          <t>CT 3</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cable Triplex de Aluminio # 2</t>
+          <t>Cable Triplex de Aluminio # 6</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1413,31 +1413,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CT 3</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cable Triplex de Aluminio # 6</t>
+          <t>Camisa de Hierro Galvanizado Para Tubo D=4 "</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Camisa de Hierro Galvanizado Para Tubo D=4 "</t>
+          <t>Control Para Alumbrado Publico 32 Amp</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="69">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Control Para Alumbrado Publico 32 Amp</t>
+          <t>Control Para Alumbrado Publico 65 Amp</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Control Para Alumbrado Publico 65 Amp</t>
+          <t>Control Para Alumbrado Publico 100 Amp</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1473,12 +1473,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Control Para Alumbrado Publico 100 Amp</t>
+          <t>Control FotoElectrico ( Fotocelda )</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1488,117 +1488,117 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>CIA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Control FotoElectrico ( Fotocelda )</t>
+          <t>Cinta Aislante</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CIA</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cinta Aislante</t>
+          <t>Conector de Compresion de Cobre YG 6 - 6</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>CC0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Conector de Compresion de Cobre YG 6 - 6</t>
+          <t>Conector de Compresion YC 4A4</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CC0</t>
+          <t>CC1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Conector de Compresion YC 4A4</t>
+          <t>Conector de Compresion YC 2A2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CC1</t>
+          <t>CC2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Conector de Compresion YC 2A2</t>
+          <t xml:space="preserve">Conector de Compresion YC 25A25 ( 1/0-1/0 ) </t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CC2</t>
+          <t>CC3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conector de Compresion YC 25A25 ( 1/0-1/0 ) </t>
+          <t>Conector de Compresion YC 25A2 ( 1/0-2 )</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CC3</t>
+          <t>CC4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Conector de Compresion YC 25A2 ( 1/0-2 )</t>
+          <t>Conector de Compresion YC 28A2 ( 3/0-2 )</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CC4</t>
+          <t>CC5</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Conector de Compresion YC 28A2 ( 3/0-2 )</t>
+          <t>Conector de Compresion YC 28A25 ( 3/0-1/0 )</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1608,42 +1608,42 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CC5</t>
+          <t>CC6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conector de Compresion YC 28A25 ( 3/0-1/0 )</t>
+          <t>Conector de Compresion YC 28A28 ( 3/0-3/0 )</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CC6</t>
+          <t>CC6.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Conector de Compresion YC 28A28 ( 3/0-3/0 )</t>
+          <t>Conector de Compresion para cable 477</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CC6.1</t>
+          <t>CC7</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Conector de Compresion para cable 477</t>
+          <t>Conector de Compresion KDR05 ( 266.8-3/0 )</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1653,12 +1653,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CC7</t>
+          <t>CC8</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Conector de Compresion KDR05 ( 266.8-3/0 )</t>
+          <t>Conector de Compresion YPC 33R28R ( 266.8-2/0 )</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1668,12 +1668,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CC8</t>
+          <t>CC9</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conector de Compresion YPC 33R28R ( 266.8-2/0 )</t>
+          <t>Conector de Compresion YPC 33R26U ( 266.8-1/0 )</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1683,12 +1683,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CC9</t>
+          <t>CC10</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Conector de Compresion YPC 33R26U ( 266.8-1/0 )</t>
+          <t>Conector de Compresion YPC 33R28R ( 266.8-3/0 )</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1698,42 +1698,42 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CC10</t>
+          <t>CC11</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Conector de Compresion YPC 33R28R ( 266.8-3/0 )</t>
+          <t>Conector de Compresion YPC 26R8U</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CC11</t>
+          <t>CC12</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Conector de Compresion YPC 26R8U</t>
+          <t>Conector de Compresion YPC 33R33R (&gt;=266.8 )</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CC12</t>
+          <t>CC13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Conector de Compresion YPC 33R33R (&gt;=266.8 )</t>
+          <t>Conector de Compresion YHN-525 ( 4/0-477 )</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1743,12 +1743,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CC13</t>
+          <t>CC14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Conector de Compresion YHN-525 ( 4/0-477 )</t>
+          <t>Conector de Compresion YPC 40A40 ( 556.5-795)</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1758,27 +1758,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CC14</t>
+          <t>CCB1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Conector de Compresion YPC 40A40 ( 556.5-795)</t>
+          <t>Conector de Compresion Bimetalico 2 A 6</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CCB1</t>
+          <t>CCB2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Conector de Compresion Bimetalico 2 A 6</t>
+          <t>Conector de Compresion Bimetalico 6-6</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1788,27 +1788,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CCB2</t>
+          <t>CCB3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Conector de Compresion Bimetalico 6-6</t>
+          <t>Conector de Compresion Bimetalico 1/0-6</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CCB3</t>
+          <t>CCB4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Conector de Compresion Bimetalico 1/0-6</t>
+          <t>Conector de Compresion Bimetalico 2-4</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1818,12 +1818,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CCB4</t>
+          <t>CCB5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Conector de Compresion Bimetalico 2-4</t>
+          <t>Conector de Compresion Bimetalico 3/0-6</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1833,12 +1833,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CCB5</t>
+          <t>CCA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Conector de Compresion Bimetalico 3/0-6</t>
+          <t>Conector Para Cable de Acero, D=1/4, E.H.S.</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Conector Para Cable de Acero, D=1/4, E.H.S.</t>
+          <t>Conector Para Cable de Acero, D=5/16, E.H.S.</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1863,42 +1863,42 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CCA</t>
+          <t>CP1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Conector Para Cable de Acero, D=5/16, E.H.S.</t>
+          <t>Conector Terminal de Pin Para Cable 3/0</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CP1</t>
+          <t>CP2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Conector Terminal de Pin Para Cable 3/0</t>
+          <t>Conector Terminal de Pin Para Cable 266.8</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CP2</t>
+          <t>CP3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Conector Terminal de Pin Para Cable 266.8</t>
+          <t>Conector Terminal de Pin Para Cable 477</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1908,12 +1908,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CP3</t>
+          <t>CP4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Conector Terminal de Pin Para Cable 477</t>
+          <t>Conector Terminal de Pin Para Cable 556.5</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1923,42 +1923,42 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CP4</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Conector Terminal de Pin Para Cable 556.5</t>
+          <t>Conector Para Varilla de Aterrizaje de D=5/8"</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>CCH1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Conector Para Varilla de Aterrizaje de D=5/8"</t>
+          <t>Conector de Compresion de Aluminio Tipo"H",4/0-477</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CCH1</t>
+          <t>CCH2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Conector de Compresion de Aluminio Tipo"H",4/0-477</t>
+          <t>Conector de Compresion de Aluminio Tipo"H",266.8-477</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1968,12 +1968,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CCH2</t>
+          <t>CCP1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Conector de Compresion de Aluminio Tipo"H",266.8-477</t>
+          <t>Conector de Compresion Tipo Plancha, 3/0</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1983,12 +1983,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CCP1</t>
+          <t>CCP2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Conector de Compresion Tipo Plancha, 3/0</t>
+          <t>Conector de Compresion Tipo Plancha, 266.8</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -1998,12 +1998,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CCP2</t>
+          <t>CCP3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Conector de Compresion Tipo Plancha, 266.8</t>
+          <t>Conector de Compresion Tipo Plancha, 477</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2013,12 +2013,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CCP3</t>
+          <t>CCT1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Conector de Compresion Tipo Plancha, 477</t>
+          <t>Conector de Compresion Tipo "T", 266</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2028,12 +2028,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CCT1</t>
+          <t>CCT2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Conector de Compresion Tipo "T", 266</t>
+          <t>Conector de Compresion Tipo "T", 477</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2043,12 +2043,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CCT2</t>
+          <t>CCT3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Conector de Compresion Tipo "T", 477</t>
+          <t>Conector de Compresion Tipo "T", 566</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2058,12 +2058,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CCT3</t>
+          <t>CR1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Conector de Compresion Tipo "T", 566</t>
+          <t>Cruceta de Madera Curada de 4" X 5"X  48"</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2073,27 +2073,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CR1</t>
+          <t>CR2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cruceta de Madera Curada de 4" X 5"X  48"</t>
+          <t>Cruceta de Madera Curada de 4" X 5"X  96"</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CR2</t>
+          <t>CR3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cruceta de Madera Curada de 4" X 5"X  96"</t>
+          <t>Cruceta de Madera Curada de 4" X 5"X  96"/Voladizo</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2103,27 +2103,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CR3</t>
+          <t>CR4</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cruceta de Madera Curada de 4" X 5"X  96"/Voladizo</t>
+          <t>Cruceta de Madera Curada de 4" X 5"X  120"</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CR4</t>
+          <t>CR5</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cruceta de Madera Curada de 4" X 5"X  120"</t>
+          <t>Cruceta de Madera Curada de 4" X 5"X  240"</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2133,27 +2133,27 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CR5</t>
+          <t>CN1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cruceta de Madera Curada de 4" X 5"X  240"</t>
+          <t>Cuchilla Portafusibles de Porcelana 100 Amp. Normal, 13.8 KV.</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CN1</t>
+          <t>CN2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Porcelana 100 Amp. Normal, 13.8 KV.</t>
+          <t>Cuchilla Portafusibles de Porcelana 100 Amp. Normal, 34.5 KV.</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2163,12 +2163,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CN2</t>
+          <t>CN3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Porcelana 100 Amp. Normal, 34.5 KV.</t>
+          <t>Cuchilla Portafusibles de Polimero 100 Amp., 13.8 KV.</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2178,12 +2178,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CN3</t>
+          <t>CN4</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Polimero 100 Amp., 13.8 KV.</t>
+          <t>Cuchilla Portafusibles de Polimero 100 Amp., 34.5 KV.</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2193,27 +2193,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CN4</t>
+          <t xml:space="preserve">CRA 1 </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Polimero 100 Amp., 34.5 KV.</t>
+          <t>Cuchilla Portafusibles de Porcelana 100 Amp., 13.8 KV,Apertura Bajo Carga</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRA 1 </t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Porcelana 100 Amp., 13.8 KV,Apertura Bajo Carga</t>
+          <t>Cuchilla Portafusibles de Porcelana 200 Amp., 13.8 KV,Apertura Bajo Carga</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2223,12 +2223,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>CRA 2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Porcelana 200 Amp., 13.8 KV,Apertura Bajo Carga</t>
+          <t>Cuchilla Portafusibles de Porcelana 100 Amp., 34.5 KV,Apertura Bajo Carga</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2238,12 +2238,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CRA 2</t>
+          <t>CRA3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Porcelana 100 Amp., 34.5 KV,Apertura Bajo Carga</t>
+          <t>Cuchilla Portafusibles de Porcelana 200 Amp., 34.5 KV,Apertura Bajo Carga</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2253,12 +2253,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CRA3</t>
+          <t>CRA 3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Porcelana 200 Amp., 34.5 KV,Apertura Bajo Carga</t>
+          <t>Cuchilla Portafusibles de Polimero 100 Amp., 13.8 KV,Apertura Bajo Carga</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2268,12 +2268,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CRA 3</t>
+          <t>CRA 4</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Polimero 100 Amp., 13.8 KV,Apertura Bajo Carga</t>
+          <t>Cuchilla Portafusibles de Polimero 100 Amp., 34.5 KV,Apertura Bajo Carga</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2283,27 +2283,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CRA 4</t>
+          <t>EC1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cuchilla Portafusibles de Polimero 100 Amp., 34.5 KV,Apertura Bajo Carga</t>
+          <t>Espiga Para Cruceta de Madera L=6",Rosca=1",D=3/4"</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EC1</t>
+          <t>EC2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Espiga Para Cruceta de Madera L=6",Rosca=1",D=3/4"</t>
+          <t>Espiga Para Cruceta de Madera L=8",Rosca=1-3/8",D=3/4"</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2313,12 +2313,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EC2</t>
+          <t>EP 1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Espiga Para Cruceta de Madera L=8",Rosca=1-3/8",D=3/4"</t>
+          <t>Espiga Para Punta de Poste Tipo Recta L-18,Rosca=1-3/8"</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2328,12 +2328,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EP 1</t>
+          <t>EP 2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Espiga Para Punta de Poste Tipo Recta L-18,Rosca=1-3/8"</t>
+          <t>Espiga Para Punta de Poste Tipo Recta L-20,Rosca=1-3/8"</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2343,42 +2343,42 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EP 2</t>
+          <t>EPC</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Espiga Para Punta de Poste Tipo Recta L-20,Rosca=1-3/8"</t>
+          <t>Espiga Para Punta de Poste Curva L=21",Rosca=1-3/8"</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EPC</t>
+          <t xml:space="preserve">ET </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Espiga Para Punta de Poste Curva L=21",Rosca=1-3/8"</t>
+          <t>Estribo de compresion Para Conexion de Linea Viva .</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">ET </t>
+          <t>ET 1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Estribo de compresion Para Conexion de Linea Viva .</t>
+          <t>Estribo de Tornillo Para Conexion de Linea Viva ( 4-4/0 )</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2388,12 +2388,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ET 1</t>
+          <t>ET 2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Estribo de Tornillo Para Conexion de Linea Viva ( 4-4/0 )</t>
+          <t>Estribo de Tornillo Para Conexion de Linea Viva ( 4/0-556 )</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2403,12 +2403,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ET 2</t>
+          <t>ET 3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Estribo de Tornillo Para Conexion de Linea Viva ( 4/0-556 )</t>
+          <t>Estribo de Tornillo Para Conexion de Linea Viva ( 2-4/0 )</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2418,12 +2418,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ET 3</t>
+          <t>ET 4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Estribo de Tornillo Para Conexion de Linea Viva ( 2-4/0 )</t>
+          <t>Estribo de Compresion Para Conexion de Linea Viva ( 2-4/0 )</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2433,12 +2433,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ET 4</t>
+          <t>ET 5</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Estribo de Compresion Para Conexion de Linea Viva ( 2-4/0 )</t>
+          <t>Estribo de Compresion Para Conexion de Linea Viva ( 3/0-477 )</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2448,27 +2448,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ET 5</t>
+          <t>F1A</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Estribo de Compresion Para Conexion de Linea Viva ( 3/0-477 )</t>
+          <t>Fusible Cinta Universal (0.2 Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>F1A</t>
+          <t>F1B</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (0.2 Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (0.4 Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2478,12 +2478,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>F1B</t>
+          <t>F1C</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (0.4 Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (1,Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2493,12 +2493,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>F1C</t>
+          <t>F1D</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (1,Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (2, Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2508,12 +2508,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>F1D</t>
+          <t>F1E</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (2, Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (3, Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2523,12 +2523,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>F1E</t>
+          <t>F1F</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (3, Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (4, Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2538,12 +2538,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>F1F</t>
+          <t>F1G</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (4, Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (5, Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2553,12 +2553,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>F1G</t>
+          <t>F1H</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (5, Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal (6, Amp),Tipo Slofast</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2568,12 +2568,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>F1H</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal (6, Amp),Tipo Slofast</t>
+          <t>Fusible Cinta Universal ( X ) Amp,Tipo K</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2583,12 +2583,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal ( X ) Amp,Tipo K</t>
+          <t>Fusible Cinta Universal ( X ) Amp,Tipo T</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2598,16 +2598,16 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fusible Cinta Universal ( X ) Amp,Tipo T</t>
+          <t>Grapa Para Linea Viva ,Cable 2-4/0</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Grapa Para Linea Viva ,Cable 2-4/0</t>
+          <t>Grapa Para Linea Viva ,Cable 3/0-477</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Grapa Para Linea Viva ,Cable 3/0-477</t>
+          <t>Grapa Para Linea Viva ,para cable 266.8</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2643,72 +2643,72 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>GS 1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Grapa Para Linea Viva ,para cable 266.8</t>
+          <t>Grapa de Suspension Para Conductor ( 1/0-477 )</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>GS 1</t>
+          <t>GS 2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Grapa de Suspension Para Conductor ( 1/0-477 )</t>
+          <t>Grapa de Suspension Para Guarda D=1/4"</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GS 2</t>
+          <t>GC</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Grapa de Suspension Para Guarda D=1/4"</t>
+          <t>Grapa Galvanizada de 1-1/4"</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>345</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GC</t>
+          <t>GT 1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Grapa Galvanizada de 1-1/4"</t>
+          <t>Grapa Terminal Tipo Escuadra Para Conductor (1/0-4/0 )</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GT 1</t>
+          <t>GT 2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Grapa Terminal Tipo Escuadra Para Conductor (1/0-4/0 )</t>
+          <t>Grapa Terminal Tipo Escuadra Para Conductor (3/0-556 )</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2718,27 +2718,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GT 2</t>
+          <t>GT 3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Grapa Terminal Tipo Escuadra Para Conductor (3/0-556 )</t>
+          <t>Grapa Terminal Tipo Recto Para Cable de Guarda D=1/4"</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>GT 3</t>
+          <t>GT 4</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Grapa Terminal Tipo Recto Para Cable de Guarda D=1/4"</t>
+          <t>Grapa Terminal Tipo Recto Para Conductor ( 2-4/0 )</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2748,12 +2748,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>GT 4</t>
+          <t>GT 5</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Grapa Terminal Tipo Recto Para Conductor ( 2-4/0 )</t>
+          <t>Grapa Terminal Tipo Recto Para Conductor ( 1/0-4/0 )</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2763,12 +2763,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GT 5</t>
+          <t>GT 6</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Grapa Terminal Tipo Recto Para Conductor ( 1/0-4/0 )</t>
+          <t>Grapa Terminal Tipo Recto Para Conductor ( 266.8-556 MCM )</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2778,16 +2778,16 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GT 6</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Grapa Terminal Tipo Recto Para Conductor ( 266.8-556 MCM )</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable # 2</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable # 2</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 1/0</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 1/0</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 3/0</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 3/0</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 266.8</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 266.8</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 336</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 336</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 477</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 477</t>
+          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 556</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -2883,12 +2883,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>JE</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Puentes ( JUMPER ), Tipo "YCS-R" Para Cable 556</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable # 2</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable # 2</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 1/0</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 1/0</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 3/0</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 3/0</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 266.8</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 266.8</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 336</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 336</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 477</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 477</t>
+          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 556</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -2988,12 +2988,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Tension Tipo "YDS-RL",Para Cable 556</t>
+          <t xml:space="preserve">Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable # 2 </t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable # 2 </t>
+          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 1/0</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 1/0</t>
+          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 3/0</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 3/0</t>
+          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 266.8</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 266.8</t>
+          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 336</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 336</t>
+          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 477</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 477</t>
+          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 556</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3093,87 +3093,87 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>LS1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Junta de Empalme Para Reparacion ,Tipo "YCU-R"  y "YOU-R" Para Cable 556</t>
+          <t>Lampara de Sodio de 100 Watts,Completa con Fotocelda</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LS1</t>
+          <t>LS2</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lampara de Sodio de 100 Watts,Completa con Fotocelda</t>
+          <t>Lampara de Sodio de 100 Watts,Completa Sin Fotocelda</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2100</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LS2</t>
+          <t>LS3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lampara de Sodio de 100 Watts,Completa Sin Fotocelda</t>
+          <t>Lampara de Sodio Tipo Cobra de 250 Watts,Completa Sin Fotocelda</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1123</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LS3</t>
+          <t>LS4</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lampara de Sodio Tipo Cobra de 250 Watts,Completa Sin Fotocelda</t>
+          <t>Lampara de Sodio Tipo Cobra de 400 Watts,Completa Sin Fotocelda.</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3195</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LS4</t>
+          <t>LS5</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lampara de Sodio Tipo Cobra de 400 Watts,Completa Sin Fotocelda.</t>
+          <t>Lampara de Sodio de 400 Watts,Completa Con Fotocelda</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>LS5</t>
+          <t>LS6</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lampara de Sodio de 400 Watts,Completa Con Fotocelda</t>
+          <t>Lampara de Sodio de 400 Watts,Completa Sin Fotocelda(Brazo L= 142" D=1 1/2")</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3183,12 +3183,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LS6</t>
+          <t>ME 1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lampara de Sodio de 400 Watts,Completa Sin Fotocelda(Brazo L= 142" D=1 1/2")</t>
+          <t>Medidor de Energia Electromecanico Monofasico</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3198,27 +3198,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ME 1</t>
+          <t>PR 1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Medidor de Energia Electromecanico Monofasico</t>
+          <t>Pararrayo de Porcelana de 10 KV</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PR 1</t>
+          <t>PR 2</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pararrayo de Porcelana de 10 KV</t>
+          <t>Pararrayo de Porcelana de 27 KV</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3228,12 +3228,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PR 2</t>
+          <t>PR 3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pararrayo de Porcelana de 27 KV</t>
+          <t xml:space="preserve">Pararrayo de Polimero Para 10 KV IEEE C62.11 </t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3243,12 +3243,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PR 3</t>
+          <t>PR 4</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pararrayo de Polimero Para 10 KV IEEE C62.11 </t>
+          <t>Pararrayo de Polimero Para 27 KV IEEE C62.12</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3258,12 +3258,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PR 4</t>
+          <t>PAI</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pararrayo de Polimero Para 27 KV IEEE C62.12</t>
+          <t>Perno de Acero Inoxidable 1/2"X 2"</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3273,162 +3273,162 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PAI</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perno de Acero Inoxidable 1/2"X 2"</t>
+          <t>Perno de Carroceria de 3/8" X 5"</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PM 1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perno de Carroceria de 3/8" X 5"</t>
+          <t>Perno de Maquina de 5/8" X 8"</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PM 1</t>
+          <t>PM 2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 8"</t>
+          <t>Perno de Maquina de 5/8" X 10"</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PM 2</t>
+          <t>PM 3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 10"</t>
+          <t>Perno de Maquina de 5/8" X 12"</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PM 3</t>
+          <t>PM 4</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 12"</t>
+          <t>Perno de Maquina de 5/8" X 14"</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PM 4</t>
+          <t>PM 5</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 14"</t>
+          <t>Perno de Maquina de 5/8" X 16"</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PM 5</t>
+          <t>PM 6</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 16"</t>
+          <t>Perno de Maquina de 5/8" X 18"</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PM 6</t>
+          <t>PM 7</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 18"</t>
+          <t>Perno de Maquina de 5/8" X 20"</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PM 7</t>
+          <t>PM 8</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 20"</t>
+          <t>Perno de Maquina de 5/8" X 22"</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PM 8</t>
+          <t>PM 9</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 22"</t>
+          <t>Perno de Maquina de 5/8" X 24"</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PM 9</t>
+          <t>PO 1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Perno de Maquina de 5/8" X 24"</t>
+          <t>Perno Recto de Ojo 5/8" X 12"</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3438,42 +3438,42 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PO 1</t>
+          <t>PO 2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Perno Recto de Ojo 5/8" X 12"</t>
+          <t>Perno Recto de Ojo Con Eslabon 5/8" X 12"</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PO 2</t>
+          <t>PO 3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Perno Recto de Ojo Con Eslabon 5/8" X 12"</t>
+          <t>Perno Curvo de Ojo Con Guardacabo 5/8" X 10"</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>PO 3</t>
+          <t>PO 4</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Perno Curvo de Ojo Con Guardacabo 5/8" X 10"</t>
+          <t>Perno Curvo de Ojo Con Guardacabo 5/8" X 12"</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3483,12 +3483,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PO 4</t>
+          <t>PO 5</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Perno Curvo de Ojo Con Guardacabo 5/8" X 12"</t>
+          <t>Perno Recto  de Ojo Con Guardacabo 5/8" X 12"</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3498,117 +3498,117 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PO 5</t>
+          <t>PRC 1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Perno Recto  de Ojo Con Guardacabo 5/8" X 12"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 12"</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PRC 1</t>
+          <t>PRC 2</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 12"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 14"</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PRC 2</t>
+          <t>PRC 3</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 14"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 16"</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PRC 3</t>
+          <t>PRC 4</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 16"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 18"</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PRC 4</t>
+          <t>PRC 5</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 18"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 20"</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PRC 5</t>
+          <t>PRC 6</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 20"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 22"</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PRC 6</t>
+          <t>PRC 7</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 22"</t>
+          <t>Perno de Rosca Corrida de 5/8" X 24"</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>PRC 7</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Perno de Rosca Corrida de 5/8" X 24"</t>
+          <t>Perno Para Carcasa de Transformador ( Aterrizaje de Carcasa)</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3618,27 +3618,27 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t xml:space="preserve">PLR 1 </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Perno Para Carcasa de Transformador ( Aterrizaje de Carcasa)</t>
+          <t>Placa de Refuerzo 3/16" X 4" X 5",D=13/16"</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLR 1 </t>
+          <t xml:space="preserve">PLR 2 </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Placa de Refuerzo 3/16" X 4" X 5",D=13/16"</t>
+          <t>Placa de Refuerzo 1/4" X 6" X 8",D=15/16"</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3648,12 +3648,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLR 2 </t>
+          <t>PLSC</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Placa de Refuerzo 1/4" X 6" X 8",D=15/16"</t>
+          <t>Placa Separadora de Cruceta de Madera 3/16" X 4" X 5",D=13/16"</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3663,147 +3663,147 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PLSC</t>
+          <t>PA 1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Placa Separadora de Cruceta de Madera 3/16" X 4" X 5",D=13/16"</t>
+          <t>Plato de Anclaje de 16" X 16"</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PA 1</t>
+          <t>PA 2</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Plato de Anclaje de 16" X 16"</t>
+          <t>Plato de Anclaje de 20" X 20"</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PA 2</t>
+          <t>PLE</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Plato de Anclaje de 20" X 20"</t>
+          <t>Pletina Espaciadora para Cruceta de Madera de 1/2" X 4" X 24"</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PLE</t>
+          <t>PC 30</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pletina Espaciadora para Cruceta de Madera de 1/2" X 4" X 24"</t>
+          <t>Poste de Concreto  30' Clase 450</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>450</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PC 30</t>
+          <t>PC 35</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Poste de Concreto  30' Clase 450</t>
+          <t>Poste de Concreto  35' Clase 450</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>7500</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PC 35</t>
+          <t>PC 40</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Poste de Concreto  35' Clase 450</t>
+          <t>Poste de Concreto  40' Clase 750</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>9900</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PC 40</t>
+          <t>PC 45</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Poste de Concreto  40' Clase 750</t>
+          <t>Poste de Concreto  45' Clase 750</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PC 45</t>
+          <t>PC 50</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Poste de Concreto  45' Clase 750</t>
+          <t>Poste de Concreto  50' Clase 1000</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>15000</v>
+        <v>24970</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PC 50</t>
+          <t>PC 60</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Poste de Concreto  50' Clase 1000</t>
+          <t>Poste de Concreto  60' Clase 1000</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>24970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PC 60</t>
+          <t>PCA 30</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Poste de Concreto  60' Clase 1000</t>
+          <t>Poste de Concreto Autosoportado  30'</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3813,12 +3813,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PCA 30</t>
+          <t>PCA 35</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Poste de Concreto Autosoportado  30'</t>
+          <t>Poste de Concreto Autosoportado  35'</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3828,76 +3828,76 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PCA 35</t>
+          <t>PCA 40</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Poste de Concreto Autosoportado  35'</t>
+          <t>Poste de Concreto Autosoportado  40'</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PCA 40</t>
+          <t>PCA 45</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Poste de Concreto Autosoportado  40'</t>
+          <t>Poste de Concreto Autosoportado  45'</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>39000</v>
+        <v>41299</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PCA 45</t>
+          <t>PCA 50</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Poste de Concreto Autosoportado  45'</t>
+          <t>Poste de Concreto Autosoportado  50'</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>41299</v>
+        <v>35520</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PCA 50</t>
+          <t>PCA 60</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Poste de Concreto Autosoportado  50'</t>
+          <t>Poste de Concreto Autosoportado  60'</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>35520</v>
+        <v>94863</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PCA 60</t>
+          <t>PM 30</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Poste de Concreto Autosoportado  60'</t>
+          <t>Poste de Madera Curada  30' Clase 6</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>94863</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="233">
@@ -3908,97 +3908,97 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  30' Clase 6</t>
+          <t>Poste de Madera Curada  30' Clase 5</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2790</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PM 30</t>
+          <t>PM 35</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  30' Clase 5</t>
+          <t>Poste de Madera Curada  35' clase 5</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4551</v>
+        <v>5347.98</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PM 35</t>
+          <t>PM 40</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  35' clase 5</t>
+          <t>Poste de Madera Curada  40' Clase 4</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>5347.98</v>
+        <v>7215</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PM 40</t>
+          <t>PM 45</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  40' Clase 4</t>
+          <t>Poste de Madera Curada  45' Clase 4</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>7215</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PM 45</t>
+          <t>PM 50</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  45' Clase 4</t>
+          <t>Poste de Madera Curada  50' Clase 3</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>8437</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PM 50</t>
+          <t>PM 60</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  50' Clase 3</t>
+          <t>Poste de Madera Curada  60' Clase 2</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>18500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PM 60</t>
+          <t>PME 30</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Poste de Madera Curada  60' Clase 2</t>
+          <t>Poste de Metal  30' Clase 450</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4008,12 +4008,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PME 30</t>
+          <t>PME 35</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Poste de Metal  30' Clase 450</t>
+          <t>Poste de Metal  35' Clase 450</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4023,12 +4023,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PME 35</t>
+          <t>PME 40</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Poste de Metal  35' Clase 450</t>
+          <t>Poste de Metal  40' Clase 750</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4038,12 +4038,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PME 40</t>
+          <t>PME 45</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Poste de Metal  40' Clase 750</t>
+          <t>Poste de Metal  45' clase 750</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4053,12 +4053,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PME 45</t>
+          <t>PME 50</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Poste de Metal  45' clase 750</t>
+          <t>Poste de Metal  50' Clase 1000</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4068,12 +4068,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PME 50</t>
+          <t>PME 60</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Poste de Metal  50' Clase 1000</t>
+          <t>Poste de Metal  60' Clase 1000</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4083,12 +4083,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PME 60</t>
+          <t>PMEA 30</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Poste de Metal  60' Clase 1000</t>
+          <t>Poste de Metal Autosoportado  30'</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4098,12 +4098,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PMEA 30</t>
+          <t>PMEA 35</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Poste de Metal Autosoportado  30'</t>
+          <t>Poste de Metal Autosoportado  35'</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4113,12 +4113,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PMEA 35</t>
+          <t>PMEA 40</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Poste de Metal Autosoportado  35'</t>
+          <t>Poste de Metal Autosoportado  40'</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4128,12 +4128,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PMEA 40</t>
+          <t>PMEA 45</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Poste de Metal Autosoportado  40'</t>
+          <t>Poste de Metal Autosoportado  45'</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4143,12 +4143,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PMEA 45</t>
+          <t>PMEA 50</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Poste de Metal Autosoportado  45'</t>
+          <t>Poste de Metal Autosoportado  50'</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4158,12 +4158,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PMEA 50</t>
+          <t>PMEA 60</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Poste de Metal Autosoportado  50'</t>
+          <t>Poste de Metal Autosoportado  60'</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4173,91 +4173,91 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PMEA 60</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Poste de Metal Autosoportado  60'</t>
+          <t>Puntal Angular de 50", 1-3/4" X 1-3/4" X 13/16"</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PAN 1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Puntal Angular de 50", 1-3/4" X 1-3/4" X 13/16"</t>
+          <t>Puntal Angular de 60", 1-3/4" X 1-3/4" X 13/16"</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PAN 1</t>
+          <t>SCT</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Puntal Angular de 60", 1-3/4" X 1-3/4" X 13/16"</t>
+          <t>Separador Para Cable Triplex # 1/0 ( Para Tres Lineas )</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SCT</t>
+          <t>PMR</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Separador Para Cable Triplex # 1/0 ( Para Tres Lineas )</t>
+          <t>Protector Metalico Para Retenida</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>PPR</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Protector Metalico Para Retenida</t>
+          <t>Protector Plastico Para Retenida</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PPR</t>
+          <t>SMPT 1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Protector Plastico Para Retenida</t>
+          <t>Soporte Metalico Para Montaje de un Transformador de 15 KVA,En poste</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de un Transformador de 15 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de un Transformador de 25 KVA,En poste</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de un Transformador de 25 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de un Transformador de 37.5 KVA,En poste</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de un Transformador de 37.5 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de un Transformador de 50 KVA,En poste</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4308,12 +4308,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SMPT 1</t>
+          <t>SMPT 2</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de un Transformador de 50 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores de 15 KVA,En poste</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores de 15 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores de 25 KVA,En poste</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores de 25 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores de 37.5 KVA,En poste</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores de 37.5 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores de 50 KVA,En poste</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4368,12 +4368,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SMPT 2</t>
+          <t>SMPT 3</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores de 50 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 15 KVA,En poste</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 15 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 25 KVA,En poste</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 25 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 37.5 KVA,En poste</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 37.5 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 50 KVA,En poste</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4428,12 +4428,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SMPT 3</t>
+          <t>SMPT 4</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 50 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Un Transformador  de 75 KVA,En poste</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Un Transformador  de 75 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Un Transformador  de 100 KVA,En poste</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Un Transformador  de 100 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Un Transformador  de 150 KVA,En poste</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Un Transformador  de 150 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Un Transformador  de 167 KVA,En poste</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4488,12 +4488,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SMPT 4</t>
+          <t>SMPT 5</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Un Transformador  de 167 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 75 KVA,En poste</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 75 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 100 KVA,En poste</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 100 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 150 KVA,En poste</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 150 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 167 KVA,En poste</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4548,12 +4548,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SMPT 5</t>
+          <t>SMPT 6</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Dos Transformadores  de 167 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 75 KVA,En poste</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 75 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 100 KVA,En poste</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 100 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 150 KVA,En poste</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 150 KVA,En poste</t>
+          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 167 KVA,En poste</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4608,57 +4608,57 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SMPT 6</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Soporte Metalico Para Montaje de Tres Transformadores  de 167 KVA,En poste</t>
+          <t>Tirante de Pletina de ,1/4" X 1-1/4" X 30"</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tirante de Pletina de ,1/4" X 1-1/4" X 30"</t>
+          <t>Tornillo Goloso de 1/2" X 4"</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TR 1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tornillo Goloso de 1/2" X 4"</t>
+          <t>Transformador Tipo Poste de 5 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>TR 1</t>
+          <t>TR 2</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 5 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 10 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4668,117 +4668,117 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>TR 2</t>
+          <t>TR 3</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 10 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 15 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>TR 3</t>
+          <t>TR 4</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 15 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 25 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>TR 4</t>
+          <t>TR 5</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 25 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 37.5 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>TR 5</t>
+          <t>TR 6</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 37.5 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 50 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TR 6</t>
+          <t>TR 7</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 50 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 75 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>90000</v>
+        <v>89249</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TR 7</t>
+          <t>TR 8</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 75 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 100 KVA 7.9/13.8 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>89249</v>
+        <v>112976</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TR 8</t>
+          <t>TR 9</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 100 KVA 7.9/13.8 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 5 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>112976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TR 9</t>
+          <t>TR 10</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 5 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 10 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4788,147 +4788,147 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>TR 10</t>
+          <t>TR 11</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 10 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 15 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TR 11</t>
+          <t>TR 12</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 15 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 25 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TR 12</t>
+          <t>TR 13</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 25 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 37.5 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>TR 13</t>
+          <t>TR 14</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 37.5 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 50 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>75000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>TR 14</t>
+          <t>TR 15</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 50 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 75 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>90000</v>
+        <v>93573</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>TR 15</t>
+          <t>TR 16</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 75 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Transformador Tipo Poste de 100 KVA 19.9/34.5 KV , 120/240 Volts</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>93573</v>
+        <v>117976</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>TR 16</t>
+          <t>TGL 1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transformador Tipo Poste de 100 KVA 19.9/34.5 KV , 120/240 Volts</t>
+          <t>Tubo de Hierro Galvanizado de 2" Dia. X 6"</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>117976</v>
+        <v>400</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>TGL 1</t>
+          <t>TGL 2</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tubo de Hierro Galvanizado de 2" Dia. X 6"</t>
+          <t>Tubo de Hierro Galvanizado de 4" , L=35 Pies</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>TGL 2</t>
+          <t>TGL 3</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Tubo de Hierro Galvanizado de 4" , L=35 Pies</t>
+          <t>Tubo de Hierro Galvanizado de 4" , L=41 Pies</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>TGL 3</t>
+          <t>TGL 4</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tubo de Hierro Galvanizado de 4" , L=41 Pies</t>
+          <t>Tubo de Hierro Galvanizado de 4" , L=48 Pies</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4938,12 +4938,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>TGL 4</t>
+          <t>TGL 5</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tubo de Hierro Galvanizado de 4" , L=48 Pies</t>
+          <t>Tubo de Hierro Galvanizado de 4" , L=54 Pies</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4953,12 +4953,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TGL 5</t>
+          <t>TO 1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tubo de Hierro Galvanizado de 4" , L=54 Pies</t>
+          <t>Tubo de Hierro Galvanizado de 4" Dia. X 20"</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4968,27 +4968,27 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TO 1</t>
+          <t>TO 2</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tubo de Hierro Galvanizado de 4" Dia. X 20"</t>
+          <t xml:space="preserve">Tuerca de Ojo de 5/8" </t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>TO 2</t>
+          <t>TO 3</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuerca de Ojo de 5/8" </t>
+          <t xml:space="preserve">Tuerca de Ojo Con Guardacabo Recto de 5/8" </t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -4998,42 +4998,42 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>TO 3</t>
+          <t>TO 4</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuerca de Ojo Con Guardacabo Recto de 5/8" </t>
+          <t xml:space="preserve">Tuerca de Ojo Con Guardacabo Curvo  de 5/8" </t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>TO 4</t>
+          <t>VA 1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuerca de Ojo Con Guardacabo Curvo  de 5/8" </t>
+          <t>Varilla de Anclaje de 5/8" X 6' Con Guardacabo Sencillo</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>VA 1</t>
+          <t>VA 2</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Varilla de Anclaje de 5/8" X 6' Con Guardacabo Sencillo</t>
+          <t>Varilla de Anclaje de 5/8" X 7' Con Guardacabo Sencillo</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5043,42 +5043,42 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>VA 2</t>
+          <t>VA 3</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Varilla de Anclaje de 5/8" X 7' Con Guardacabo Sencillo</t>
+          <t>Varilla de Anclaje de 5/8" X 7' Con Guardacabo Doble</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>VA 3</t>
+          <t>VAP 1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Varilla de Anclaje de 5/8" X 7' Con Guardacabo Doble</t>
+          <t>Varilla de Armar Preformado Para Cable # 2 ACSR</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>VAP 1</t>
+          <t>VAP 2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable # 2 ACSR</t>
+          <t>Varilla de Armar Preformado Para Cable 1/0 ACSR</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5088,150 +5088,135 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>VAP 2</t>
+          <t>VAP 3</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable 1/0 ACSR</t>
+          <t>Varilla de Armar Preformado Para Cable 3/0 ACSR</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>VAP 3</t>
+          <t>VAP 4</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable 3/0 ACSR</t>
+          <t>Varilla de Armar Preformado Para Cable 266.8 ACSR</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>VAP 4</t>
+          <t>VAP 4.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable 266.8 ACSR</t>
+          <t>Varilla de Armar Preformado Para Cable 4/0 ACSR</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>VAP 4.1</t>
+          <t>VAP 5</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable 4/0 ACSR</t>
+          <t>Varilla de Armar Preformado Para Cable 477  MCM</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>VAP 5</t>
+          <t>VAP 6</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable 477  MCM</t>
+          <t>Varilla de Armar Preformado Para Cable 556.5 MCM</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>535</v>
+        <v>330</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>VAP 6</t>
+          <t>VAP 7</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable 556.5 MCM</t>
+          <t>Varilla de Armar Preformado Para Cable Acerado 1/4"</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>VAP 7</t>
+          <t>VAP 8</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable Acerado 1/4"</t>
+          <t>Varilla de Armar Preformado Para Cable Acerado 5/16"</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>70</v>
+        <v>43.16</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>VAP 8</t>
+          <t>VAP 9</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable Acerado 5/16"</t>
+          <t>Varilla de Armar Preformado Para Cable Acerado 3/8"</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>43.16</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>VAP 9</t>
+          <t>VPT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Varilla de Armar Preformado Para Cable Acerado 3/8"</t>
+          <t>Varilla Galvanizada Para Polo Tierra 5/8" X 8'</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>VPT</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Varilla Galvanizada Para Polo Tierra 5/8" X 8'</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
         <v>182</v>
       </c>
     </row>
